--- a/ZackRileyGanttChart.xlsx
+++ b/ZackRileyGanttChart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A6CF94F-690F-43A4-86AB-2C71E8D89BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7639C584-7628-4ECF-8F86-70B2E143C7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,25 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
-    <t>Phase 2 Title</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -90,9 +72,6 @@
     <t>TASK</t>
   </si>
   <si>
-    <t>Phase 3 Title</t>
-  </si>
-  <si>
     <t>More Project Management Templates</t>
   </si>
   <si>
@@ -124,9 +103,6 @@
   </si>
   <si>
     <t>This template provides a simple way to create a Gantt chart to help visualize and track your project. Simply enter your tasks and start and end dates - no formulas required. The bars in the Gantt chart represent the duration of the task and are displayed using conditional formatting. Insert new tasks by inserting new rows.</t>
-  </si>
-  <si>
-    <t>Phase 4 Title</t>
   </si>
   <si>
     <t>Click on the link below to visit vertex42.com and learn more about how to use this template, such as how to calculate days and work days, create task dependencies, change the colors of the bars, add a scroll bar to make it easier to change the display week, extend the date range displayed in the chart, etc.</t>
@@ -144,9 +120,6 @@
   </si>
   <si>
     <t>Enter Company Name in cell B2.</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>Sample phase title block</t>
@@ -238,6 +211,75 @@
   </si>
   <si>
     <t>Initial Planning and Final Proposal</t>
+  </si>
+  <si>
+    <t>Initial Planning</t>
+  </si>
+  <si>
+    <t>Code Repository</t>
+  </si>
+  <si>
+    <t>Revise Initial Proposal</t>
+  </si>
+  <si>
+    <t>Finish Final Proposal</t>
+  </si>
+  <si>
+    <t>VGA</t>
+  </si>
+  <si>
+    <t>Find Information</t>
+  </si>
+  <si>
+    <t>Onscreen VGA</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>The Game</t>
+  </si>
+  <si>
+    <t>Zack</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>Debugging</t>
+  </si>
+  <si>
+    <t>Game Board Visual</t>
+  </si>
+  <si>
+    <t>Implement Code</t>
+  </si>
+  <si>
+    <t>Code with VGA</t>
+  </si>
+  <si>
+    <t>Game Working</t>
+  </si>
+  <si>
+    <t>X and O Visuals</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Mid-Progress Report</t>
+  </si>
+  <si>
+    <t>Final Report</t>
+  </si>
+  <si>
+    <t>VHDL State Machine Diagram</t>
+  </si>
+  <si>
+    <t>Initial VGA Code</t>
+  </si>
+  <si>
+    <t>Initial State Machine Code</t>
   </si>
 </sst>
 </file>
@@ -890,6 +932,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -897,18 +951,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1477,9 +1519,9 @@
   </sheetPr>
   <dimension ref="A1:BL36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1498,10 +1540,10 @@
   <sheetData>
     <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A1" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>47</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -1512,134 +1554,134 @@
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="58" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="58" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="91">
+        <v>40</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="88">
         <v>44487</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="86"/>
+        <v>41</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="90"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="85">
         <f>I5</f>
         <v>44487</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="85">
         <f>P5</f>
         <v>44494</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="85">
         <f>W5</f>
         <v>44501</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="85">
         <f>AD5</f>
         <v>44508</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="85">
         <f>AK5</f>
         <v>44515</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="85">
         <f>AR5</f>
         <v>44522</v>
       </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="85">
         <f>AY5</f>
         <v>44529</v>
       </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="85">
         <f>BF5</f>
         <v>44536</v>
       </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="87"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+        <v>32</v>
+      </c>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44487</v>
@@ -1867,26 +1909,26 @@
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="59" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" ref="I6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
@@ -2115,7 +2157,7 @@
     </row>
     <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="58" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C7" s="62"/>
       <c r="E7"/>
@@ -2182,10 +2224,10 @@
     </row>
     <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="19"/>
@@ -2255,29 +2297,29 @@
     </row>
     <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="80" t="s">
-        <v>4</v>
-      </c>
       <c r="C9" s="72" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D9" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="66">
         <f>Project_Start</f>
         <v>44487</v>
       </c>
       <c r="F9" s="66">
-        <f>E9+3</f>
-        <v>44490</v>
+        <f>E9</f>
+        <v>44487</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" s="44"/>
       <c r="J9" s="44"/>
@@ -2338,29 +2380,29 @@
     </row>
     <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="80" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" s="72" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D10" s="22">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E10" s="66">
-        <f>F9</f>
-        <v>44490</v>
+        <f>F9+1</f>
+        <v>44488</v>
       </c>
       <c r="F10" s="66">
-        <f>E10+2</f>
-        <v>44492</v>
+        <f>E10+3</f>
+        <v>44491</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
@@ -2422,26 +2464,26 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="58"/>
       <c r="B11" s="80" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D11" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="66">
-        <f>F10</f>
-        <v>44492</v>
+        <f>F10 -1</f>
+        <v>44490</v>
       </c>
       <c r="F11" s="66">
-        <f>E11+4</f>
-        <v>44496</v>
+        <f>E11+1</f>
+        <v>44491</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11" s="44"/>
       <c r="J11" s="44"/>
@@ -2503,26 +2545,26 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="58"/>
       <c r="B12" s="80" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C12" s="72" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D12" s="22">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E12" s="66">
-        <f>F11</f>
-        <v>44496</v>
+        <f>F11-1</f>
+        <v>44490</v>
       </c>
       <c r="F12" s="66">
-        <f>E12+5</f>
-        <v>44501</v>
+        <f>E12+1</f>
+        <v>44491</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
@@ -2584,19 +2626,21 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="58"/>
       <c r="B13" s="80" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="22"/>
+        <v>42</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0</v>
+      </c>
       <c r="E13" s="66">
-        <f>E10+1</f>
-        <v>44491</v>
+        <f>E12</f>
+        <v>44490</v>
       </c>
       <c r="F13" s="66">
         <f>E13+2</f>
-        <v>44493</v>
+        <v>44492</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17">
@@ -2662,10 +2706,10 @@
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="59" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="C14" s="73"/>
       <c r="D14" s="24"/>
@@ -2736,21 +2780,20 @@
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="59"/>
       <c r="B15" s="81" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D15" s="27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E15" s="67">
-        <f>E13+1</f>
-        <v>44492</v>
+        <v>44493</v>
       </c>
       <c r="F15" s="67">
         <f>E15+4</f>
-        <v>44496</v>
+        <v>44497</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17">
@@ -2817,26 +2860,26 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="58"/>
       <c r="B16" s="81" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C16" s="74" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" s="27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E16" s="67">
         <f>E15+2</f>
-        <v>44494</v>
+        <v>44495</v>
       </c>
       <c r="F16" s="67">
-        <f>E16+5</f>
-        <v>44499</v>
+        <f>E16+12</f>
+        <v>44507</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
@@ -2898,22 +2941,26 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="58"/>
       <c r="B17" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="27">
         <v>0</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="27"/>
       <c r="E17" s="67">
         <f>F16</f>
-        <v>44499</v>
+        <v>44507</v>
       </c>
       <c r="F17" s="67">
-        <f>E17+3</f>
-        <v>44502</v>
+        <f>E17+7</f>
+        <v>44514</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
@@ -2975,22 +3022,26 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="58"/>
       <c r="B18" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="27"/>
+        <v>60</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0</v>
+      </c>
       <c r="E18" s="67">
-        <f>E17</f>
-        <v>44499</v>
+        <f>F17</f>
+        <v>44514</v>
       </c>
       <c r="F18" s="67">
-        <f>E18+2</f>
-        <v>44501</v>
+        <f>E18+7</f>
+        <v>44521</v>
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
@@ -3052,22 +3103,24 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="58"/>
       <c r="B19" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="27"/>
+        <v>59</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0</v>
+      </c>
       <c r="E19" s="67">
-        <f>E18</f>
-        <v>44499</v>
+        <v>44524</v>
       </c>
       <c r="F19" s="67">
-        <f>E19+3</f>
-        <v>44502</v>
+        <v>44529</v>
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="17">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I19" s="44"/>
       <c r="J19" s="44"/>
@@ -3128,10 +3181,10 @@
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="58" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C20" s="75"/>
       <c r="D20" s="29"/>
@@ -3202,17 +3255,20 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="58"/>
       <c r="B21" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="32"/>
+        <v>65</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="32">
+        <v>0</v>
+      </c>
       <c r="E21" s="68">
-        <f>E9+15</f>
-        <v>44502</v>
+        <v>44492</v>
       </c>
       <c r="F21" s="68">
         <f>E21+5</f>
-        <v>44507</v>
+        <v>44497</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17">
@@ -3279,22 +3335,25 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="58"/>
       <c r="B22" s="82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="32"/>
+        <v>66</v>
+      </c>
+      <c r="C22" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="32">
+        <v>0</v>
+      </c>
       <c r="E22" s="68">
-        <f>F21+1</f>
-        <v>44508</v>
+        <v>44492</v>
       </c>
       <c r="F22" s="68">
-        <f>E22+4</f>
-        <v>44512</v>
+        <f>E22+5</f>
+        <v>44497</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
@@ -3356,17 +3415,21 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="58"/>
       <c r="B23" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="32">
         <v>0</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="32"/>
       <c r="E23" s="68">
         <f>E22+5</f>
-        <v>44513</v>
+        <v>44497</v>
       </c>
       <c r="F23" s="68">
         <f>E23+5</f>
-        <v>44518</v>
+        <v>44502</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
@@ -3433,17 +3496,21 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="58"/>
       <c r="B24" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="32"/>
+        <v>57</v>
+      </c>
+      <c r="C24" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="32">
+        <v>0</v>
+      </c>
       <c r="E24" s="68">
         <f>F23+1</f>
-        <v>44519</v>
+        <v>44503</v>
       </c>
       <c r="F24" s="68">
         <f>E24+4</f>
-        <v>44523</v>
+        <v>44507</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
@@ -3510,17 +3577,21 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="58"/>
       <c r="B25" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="32"/>
+        <v>58</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="32">
+        <v>0</v>
+      </c>
       <c r="E25" s="68">
         <f>E23</f>
-        <v>44513</v>
+        <v>44497</v>
       </c>
       <c r="F25" s="68">
         <f>E25+4</f>
-        <v>44517</v>
+        <v>44501</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
@@ -3586,10 +3657,10 @@
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="58" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="34"/>
@@ -3660,20 +3731,22 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="58"/>
       <c r="B27" s="83" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="78"/>
+        <v>62</v>
+      </c>
+      <c r="C27" s="78" t="s">
+        <v>42</v>
+      </c>
       <c r="D27" s="37"/>
-      <c r="E27" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="69" t="s">
-        <v>33</v>
+      <c r="E27" s="69">
+        <v>44501</v>
+      </c>
+      <c r="F27" s="69">
+        <v>44507</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="17" t="e">
+      <c r="H27" s="17">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>7</v>
       </c>
       <c r="I27" s="44"/>
       <c r="J27" s="44"/>
@@ -3735,20 +3808,22 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="58"/>
       <c r="B28" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="78"/>
+        <v>63</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>42</v>
+      </c>
       <c r="D28" s="37"/>
-      <c r="E28" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="69" t="s">
-        <v>33</v>
+      <c r="E28" s="69">
+        <v>44530</v>
+      </c>
+      <c r="F28" s="69">
+        <v>44532</v>
       </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="17" t="e">
+      <c r="H28" s="17">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>3</v>
       </c>
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
@@ -3810,20 +3885,16 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="58"/>
       <c r="B29" s="83" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="37"/>
-      <c r="E29" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="69" t="s">
-        <v>33</v>
-      </c>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="17" t="e">
+      <c r="H29" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
@@ -3885,20 +3956,16 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="58"/>
       <c r="B30" s="83" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="37"/>
-      <c r="E30" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="69" t="s">
-        <v>33</v>
-      </c>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="17"/>
-      <c r="H30" s="17" t="e">
+      <c r="H30" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
@@ -3960,20 +4027,16 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="58"/>
       <c r="B31" s="83" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="37"/>
-      <c r="E31" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="69" t="s">
-        <v>33</v>
-      </c>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="17" t="e">
+      <c r="H31" s="17" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
@@ -4034,7 +4097,7 @@
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="58" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B32" s="84"/>
       <c r="C32" s="79"/>
@@ -4105,10 +4168,10 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="59" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C33" s="39"/>
       <c r="D33" s="40"/>
@@ -4188,6 +4251,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4195,11 +4263,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
@@ -4240,7 +4303,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="F18 F22:F23 E23" formula="1"/>
+    <ignoredError sqref="F23 E23" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -4270,7 +4333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.15" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4281,79 +4344,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:2" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A2" s="49" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B2" s="49"/>
     </row>
     <row r="3" spans="1:2" s="54" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="55" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3" s="55"/>
     </row>
     <row r="4" spans="1:2" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A4" s="52" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="53" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="52" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="48" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="57" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A8" s="52" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="42.75" x14ac:dyDescent="0.4">
       <c r="A9" s="53" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="56" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A11" s="52" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.4">
       <c r="A12" s="53" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="48" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="56" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="51" customFormat="1" ht="25.5" x14ac:dyDescent="0.75">
       <c r="A14" s="52" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="53" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="57" x14ac:dyDescent="0.4">
       <c r="A16" s="53" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ZackRileyGanttChart.xlsx
+++ b/ZackRileyGanttChart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7639C584-7628-4ECF-8F86-70B2E143C7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067686A0-371C-402C-82CB-8B7723D967AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,6 +932,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -944,13 +951,6 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1521,7 +1521,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1568,14 +1568,14 @@
       <c r="B3" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88">
+      <c r="D3" s="86"/>
+      <c r="E3" s="91">
         <v>44487</v>
       </c>
-      <c r="F3" s="88"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
@@ -1584,104 +1584,104 @@
       <c r="B4" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="88">
         <f>I5</f>
         <v>44487</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="85">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="88">
         <f>P5</f>
         <v>44494</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="85">
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="88">
         <f>W5</f>
         <v>44501</v>
       </c>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="85">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="88">
         <f>AD5</f>
         <v>44508</v>
       </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="85">
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="88">
         <f>AK5</f>
         <v>44515</v>
       </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="85">
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="88">
         <f>AR5</f>
         <v>44522</v>
       </c>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="85">
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="88">
         <f>AY5</f>
         <v>44529</v>
       </c>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86"/>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="85">
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="88">
         <f>BF5</f>
         <v>44536</v>
       </c>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="86"/>
-      <c r="BL4" s="87"/>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="90"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44487</v>
@@ -2551,7 +2551,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="66">
         <f>F11-1</f>
@@ -2632,7 +2632,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="66">
         <f>E12</f>
@@ -2786,7 +2786,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="67">
         <v>44493</v>
@@ -2866,7 +2866,7 @@
         <v>54</v>
       </c>
       <c r="D16" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="67">
         <f>E15+2</f>
@@ -2947,7 +2947,7 @@
         <v>42</v>
       </c>
       <c r="D17" s="27">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E17" s="67">
         <f>F16</f>
@@ -3261,7 +3261,7 @@
         <v>54</v>
       </c>
       <c r="D21" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="68">
         <v>44492</v>
@@ -3341,7 +3341,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="68">
         <v>44492</v>
@@ -3421,7 +3421,7 @@
         <v>42</v>
       </c>
       <c r="D23" s="32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E23" s="68">
         <f>E22+5</f>
@@ -4251,11 +4251,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4263,6 +4258,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">

--- a/ZackRileyGanttChart.xlsx
+++ b/ZackRileyGanttChart.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067686A0-371C-402C-82CB-8B7723D967AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39356920-8D27-4576-B0F2-A3FD781B8F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,6 +932,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -939,18 +951,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1520,8 +1520,8 @@
   <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1568,14 +1568,14 @@
       <c r="B3" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="91">
+      <c r="D3" s="90"/>
+      <c r="E3" s="88">
         <v>44487</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
@@ -1584,104 +1584,104 @@
       <c r="B4" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="90"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="85">
         <f>I5</f>
         <v>44487</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="85">
         <f>P5</f>
         <v>44494</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+      <c r="Q4" s="86"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="86"/>
+      <c r="T4" s="86"/>
+      <c r="U4" s="86"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="85">
         <f>W5</f>
         <v>44501</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+      <c r="X4" s="86"/>
+      <c r="Y4" s="86"/>
+      <c r="Z4" s="86"/>
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="86"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="85">
         <f>AD5</f>
         <v>44508</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="85">
         <f>AK5</f>
         <v>44515</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+      <c r="AL4" s="86"/>
+      <c r="AM4" s="86"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="86"/>
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="85">
         <f>AR5</f>
         <v>44522</v>
       </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+      <c r="AS4" s="86"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="87"/>
+      <c r="AY4" s="85">
         <f>AY5</f>
         <v>44529</v>
       </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="87"/>
+      <c r="BF4" s="85">
         <f>BF5</f>
         <v>44536</v>
       </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="87"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44487</v>
@@ -3586,12 +3586,12 @@
         <v>0</v>
       </c>
       <c r="E25" s="68">
-        <f>E23</f>
-        <v>44497</v>
+        <f>E24</f>
+        <v>44503</v>
       </c>
       <c r="F25" s="68">
         <f>E25+4</f>
-        <v>44501</v>
+        <v>44507</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
@@ -3736,7 +3736,9 @@
       <c r="C27" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="37"/>
+      <c r="D27" s="37">
+        <v>0.9</v>
+      </c>
       <c r="E27" s="69">
         <v>44501</v>
       </c>
@@ -3813,7 +3815,9 @@
       <c r="C28" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="37"/>
+      <c r="D28" s="37">
+        <v>0</v>
+      </c>
       <c r="E28" s="69">
         <v>44530</v>
       </c>
@@ -4251,6 +4255,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4258,11 +4267,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">

--- a/ZackRileyGanttChart.xlsx
+++ b/ZackRileyGanttChart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39356920-8D27-4576-B0F2-A3FD781B8F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142C813B-AAC7-435C-9E76-991AE6C2739B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -252,9 +252,6 @@
     <t>Game Board Visual</t>
   </si>
   <si>
-    <t>Implement Code</t>
-  </si>
-  <si>
     <t>Code with VGA</t>
   </si>
   <si>
@@ -279,7 +276,10 @@
     <t>Initial VGA Code</t>
   </si>
   <si>
-    <t>Initial State Machine Code</t>
+    <t xml:space="preserve">Player Game Piece Movement </t>
+  </si>
+  <si>
+    <t>Implement  Final Code</t>
   </si>
 </sst>
 </file>
@@ -293,7 +293,7 @@
     <numFmt numFmtId="166" formatCode="mmm\ d\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="d"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +454,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -690,7 +704,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -932,6 +946,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="12">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -944,13 +965,15 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1520,8 +1543,8 @@
   <dimension ref="A1:BL36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1568,14 +1591,14 @@
       <c r="B3" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="88">
+      <c r="D3" s="86"/>
+      <c r="E3" s="91">
         <v>44487</v>
       </c>
-      <c r="F3" s="88"/>
+      <c r="F3" s="91"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="59" t="s">
@@ -1584,104 +1607,104 @@
       <c r="B4" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="85">
+      <c r="I4" s="88">
         <f>I5</f>
         <v>44487</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="85">
+      <c r="J4" s="89"/>
+      <c r="K4" s="89"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="89"/>
+      <c r="N4" s="89"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="88">
         <f>P5</f>
         <v>44494</v>
       </c>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
-      <c r="U4" s="86"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="85">
+      <c r="Q4" s="89"/>
+      <c r="R4" s="89"/>
+      <c r="S4" s="89"/>
+      <c r="T4" s="89"/>
+      <c r="U4" s="89"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="88">
         <f>W5</f>
         <v>44501</v>
       </c>
-      <c r="X4" s="86"/>
-      <c r="Y4" s="86"/>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="86"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="85">
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="88">
         <f>AD5</f>
         <v>44508</v>
       </c>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="85">
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="90"/>
+      <c r="AK4" s="88">
         <f>AK5</f>
         <v>44515</v>
       </c>
-      <c r="AL4" s="86"/>
-      <c r="AM4" s="86"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="86"/>
-      <c r="AP4" s="86"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="85">
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="90"/>
+      <c r="AR4" s="88">
         <f>AR5</f>
         <v>44522</v>
       </c>
-      <c r="AS4" s="86"/>
-      <c r="AT4" s="86"/>
-      <c r="AU4" s="86"/>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="85">
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="AX4" s="90"/>
+      <c r="AY4" s="88">
         <f>AY5</f>
         <v>44529</v>
       </c>
-      <c r="AZ4" s="86"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="86"/>
-      <c r="BC4" s="86"/>
-      <c r="BD4" s="86"/>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="85">
+      <c r="AZ4" s="89"/>
+      <c r="BA4" s="89"/>
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="90"/>
+      <c r="BF4" s="88">
         <f>BF5</f>
         <v>44536</v>
       </c>
-      <c r="BG4" s="86"/>
-      <c r="BH4" s="86"/>
-      <c r="BI4" s="86"/>
-      <c r="BJ4" s="86"/>
-      <c r="BK4" s="86"/>
-      <c r="BL4" s="87"/>
+      <c r="BG4" s="89"/>
+      <c r="BH4" s="89"/>
+      <c r="BI4" s="89"/>
+      <c r="BJ4" s="89"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="90"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44487</v>
@@ -2299,7 +2322,7 @@
       <c r="A9" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="94" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="72" t="s">
@@ -2382,7 +2405,7 @@
       <c r="A10" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="94" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="72" t="s">
@@ -2463,8 +2486,8 @@
     </row>
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="58"/>
-      <c r="B11" s="80" t="s">
-        <v>64</v>
+      <c r="B11" s="93" t="s">
+        <v>63</v>
       </c>
       <c r="C11" s="72" t="s">
         <v>42</v>
@@ -2632,7 +2655,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="66">
         <f>E12</f>
@@ -3022,7 +3045,7 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="58"/>
       <c r="B18" s="81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="74" t="s">
         <v>42</v>
@@ -3103,7 +3126,7 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="58"/>
       <c r="B19" s="81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="74" t="s">
         <v>42</v>
@@ -3255,7 +3278,7 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="58"/>
       <c r="B21" s="82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="76" t="s">
         <v>54</v>
@@ -3332,23 +3355,23 @@
       <c r="BK21" s="44"/>
       <c r="BL21" s="44"/>
     </row>
-    <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:64" s="3" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="58"/>
-      <c r="B22" s="82" t="s">
-        <v>66</v>
+      <c r="B22" s="92" t="s">
+        <v>65</v>
       </c>
       <c r="C22" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="68">
-        <v>44492</v>
+        <v>44504</v>
       </c>
       <c r="F22" s="68">
         <f>E22+5</f>
-        <v>44497</v>
+        <v>44509</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
@@ -3425,11 +3448,11 @@
       </c>
       <c r="E23" s="68">
         <f>E22+5</f>
-        <v>44497</v>
+        <v>44509</v>
       </c>
       <c r="F23" s="68">
         <f>E23+5</f>
-        <v>44502</v>
+        <v>44514</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
@@ -3496,7 +3519,7 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="58"/>
       <c r="B24" s="82" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C24" s="76" t="s">
         <v>42</v>
@@ -3506,11 +3529,11 @@
       </c>
       <c r="E24" s="68">
         <f>F23+1</f>
-        <v>44503</v>
+        <v>44515</v>
       </c>
       <c r="F24" s="68">
         <f>E24+4</f>
-        <v>44507</v>
+        <v>44519</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
@@ -3577,7 +3600,7 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="58"/>
       <c r="B25" s="82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="76" t="s">
         <v>42</v>
@@ -3587,11 +3610,11 @@
       </c>
       <c r="E25" s="68">
         <f>E24</f>
-        <v>44503</v>
+        <v>44515</v>
       </c>
       <c r="F25" s="68">
         <f>E25+4</f>
-        <v>44507</v>
+        <v>44519</v>
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
@@ -3660,7 +3683,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="77"/>
       <c r="D26" s="34"/>
@@ -3731,7 +3754,7 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="58"/>
       <c r="B27" s="83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="78" t="s">
         <v>42</v>
@@ -3810,7 +3833,7 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="58"/>
       <c r="B28" s="83" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="78" t="s">
         <v>42</v>
@@ -4255,11 +4278,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -4267,6 +4285,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D33">
     <cfRule type="dataBar" priority="14">
